--- a/scrum/Project Home/03_Product_Backlog.xlsx
+++ b/scrum/Project Home/03_Product_Backlog.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\GitHub\2025G1\sharepoint\Project Home\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gabri\Desktop\GitHub\2025G1\scrum\Project Home\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EF0053B-038C-4C46-961B-CC6A15CE84FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBBA839-E714-4E0B-A576-DCA535F7E299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="55">
   <si>
     <t>ID</t>
   </si>
@@ -174,6 +174,33 @@
   </si>
   <si>
     <t>5.1</t>
+  </si>
+  <si>
+    <t>Logic finalized in S4 (Idle/Low/Int/High) based on activity score and statistical thresholds (14 &amp; 20).</t>
+  </si>
+  <si>
+    <t>Focus has been on general activity states so far; specific program detection not explicitly detailed in S4.</t>
+  </si>
+  <si>
+    <t>Started in S4. Raw variable (630) converted to kWh. Correlation with states to be finalized in S5.</t>
+  </si>
+  <si>
+    <t>Interface is now a realistic MVP connected to real database (2020-2022) with dynamic filters.</t>
+  </si>
+  <si>
+    <t>Timeline selection works effectively with real dataset and date range pickers.</t>
+  </si>
+  <si>
+    <t>Basic visualization initiated (kWh conversion). Integration into main interface planned for S5.</t>
+  </si>
+  <si>
+    <t>SQL queries optimized based on finalized logic. "Critical Alarms" filtering rules established.</t>
+  </si>
+  <si>
+    <t>"Critical Alarms" determined, but final validation of the list and metadata with the client is required in S5.</t>
+  </si>
+  <si>
+    <t>Not addressed in Sprints 1-4.4.1</t>
   </si>
 </sst>
 </file>
@@ -316,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -365,12 +392,154 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="15">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -702,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:FA11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,13 +930,16 @@
         <v>1</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:157" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:157" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="12" t="s">
         <v>35</v>
       </c>
@@ -781,13 +953,19 @@
         <v>19</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>47</v>
+      </c>
     </row>
-    <row r="4" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:157" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="12" t="s">
         <v>36</v>
       </c>
@@ -800,7 +978,13 @@
         <v>1</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>48</v>
       </c>
       <c r="EY4" s="8" t="s">
         <v>1</v>
@@ -831,6 +1015,12 @@
       <c r="F5" s="6" t="s">
         <v>5</v>
       </c>
+      <c r="G5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>54</v>
+      </c>
       <c r="EY5" s="8" t="s">
         <v>2</v>
       </c>
@@ -841,7 +1031,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:157" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="12" t="s">
         <v>37</v>
       </c>
@@ -858,11 +1048,17 @@
         <v>1</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="17" t="s">
+        <v>49</v>
       </c>
       <c r="EY6" s="8"/>
     </row>
-    <row r="7" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:157" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="12" t="s">
         <v>38</v>
       </c>
@@ -875,11 +1071,17 @@
         <v>1</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>50</v>
       </c>
       <c r="EY7" s="8"/>
     </row>
-    <row r="8" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:157" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="12" t="s">
         <v>39</v>
       </c>
@@ -892,7 +1094,13 @@
         <v>1</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>51</v>
       </c>
       <c r="EY8" s="8"/>
     </row>
@@ -909,7 +1117,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>6</v>
+        <v>8</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>10</v>
       </c>
       <c r="EY9" s="8" t="s">
         <v>3</v>
@@ -918,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:157" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:157" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="12" t="s">
         <v>45</v>
       </c>
@@ -935,7 +1146,13 @@
         <v>1</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>5</v>
+        <v>8</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="EY10" s="8" t="s">
         <v>4</v>
@@ -944,7 +1161,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:157" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:157" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="12" t="s">
         <v>44</v>
       </c>
@@ -957,7 +1174,13 @@
         <v>1</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -969,14 +1192,33 @@
     <mergeCell ref="C3:C4"/>
     <mergeCell ref="D3:D4"/>
   </mergeCells>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="cellIs" dxfId="8" priority="5" operator="equal">
+      <formula>"DONE"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+      <formula>"To do"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
+      <formula>"In progress"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>"yes"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"no"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F7 F9:F1048576" xr:uid="{8FA4907A-D665-4D13-8887-5F5836457840}">
+      <formula1>$EZ$4:$EZ$10</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{B70629D8-B3C4-4157-91D3-55B248064561}">
       <formula1>$EY$4:$EY$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{8FA4907A-D665-4D13-8887-5F5836457840}">
-      <formula1>$EZ$4:$EZ$10</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1486" xr:uid="{E24B04C7-F83A-46AD-B960-A6326C60245F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G1448" xr:uid="{E24B04C7-F83A-46AD-B960-A6326C60245F}">
       <formula1>$FA$4:$FA$5</formula1>
     </dataValidation>
   </dataValidations>
@@ -1123,18 +1365,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1156,14 +1398,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9F0156A-24AB-4C91-8B09-87440233B5F5}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D3EDFCF8-E428-4347-B4D2-9F79C8918F14}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="6b9725f5-f30a-4d37-9b9e-30fd9d35ceb5"/>
@@ -1177,4 +1411,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B9F0156A-24AB-4C91-8B09-87440233B5F5}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>